--- a/BINBN (TRY).xlsx
+++ b/BINBN (TRY).xlsx
@@ -2005,6 +2005,9 @@
       <c r="A108" t="str">
         <v xml:space="preserve">    Hedge Dahil Net Yabancı Para Pozisyonu</v>
       </c>
+      <c r="B108">
+        <v>163953201</v>
+      </c>
       <c r="C108">
         <v>153832827.7225821</v>
       </c>
@@ -2140,6 +2143,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>441087458</v>
+      </c>
       <c r="C5">
         <v>283460763.26357126</v>
       </c>
@@ -2150,7 +2156,7 @@
         <v>985173142.4087688</v>
       </c>
       <c r="F5">
-        <v>780450264.0523008</v>
+        <v>839018231</v>
       </c>
       <c r="G5">
         <v>526875894.84206796</v>
@@ -3229,6 +3235,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>157626694.73642874</v>
+      </c>
       <c r="C5">
         <v>175603746.51889265</v>
       </c>
@@ -3236,10 +3245,10 @@
         <v>107857016.74467862</v>
       </c>
       <c r="E5">
-        <v>204722878.35646796</v>
+        <v>146154911.40876877</v>
       </c>
       <c r="F5">
-        <v>253574369.21023285</v>
+        <v>312142336.15793204</v>
       </c>
     </row>
     <row r="6">
@@ -4117,6 +4126,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>587242369.4087688</v>
+      </c>
       <c r="C5">
         <v>741758010.8302721</v>
       </c>
